--- a/Document/2.Design/Template/Thong_tin_hang_trong_kho.xlsx
+++ b/Document/2.Design/Template/Thong_tin_hang_trong_kho.xlsx
@@ -157,17 +157,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -178,11 +172,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,35 +472,35 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="54.125" customWidth="1"/>
-    <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="32.125" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="54.125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="9" customWidth="1"/>
+    <col min="5" max="5" width="32.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="10" customWidth="1"/>
     <col min="8" max="8" width="59.75" customWidth="1"/>
     <col min="9" max="9" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,50 +523,50 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Document/2.Design/Template/Thong_tin_hang_trong_kho.xlsx
+++ b/Document/2.Design/Template/Thong_tin_hang_trong_kho.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61702DFB-A57B-42D4-934D-B78385C13F33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>STT</t>
   </si>
@@ -30,9 +31,6 @@
     <t>Tên hàng</t>
   </si>
   <si>
-    <t>Trạng thái</t>
-  </si>
-  <si>
     <t>Số lượng</t>
   </si>
   <si>
@@ -70,17 +68,23 @@
   </si>
   <si>
     <t>${item.changeDate}</t>
+  </si>
+  <si>
+    <t>Trạng thái hàng hóa</t>
+  </si>
+  <si>
+    <t>Đơn vị tính</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -88,7 +92,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -96,7 +100,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -110,13 +114,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -157,36 +161,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -468,109 +475,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="54.125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="22.75" style="9" customWidth="1"/>
-    <col min="5" max="5" width="32.125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="59.75" customWidth="1"/>
-    <col min="9" max="9" width="30" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="52.6328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.26953125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="2"/>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6" t="s">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Document/2.Design/Template/Thong_tin_hang_trong_kho.xlsx
+++ b/Document/2.Design/Template/Thong_tin_hang_trong_kho.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61702DFB-A57B-42D4-934D-B78385C13F33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F1CEDA-0447-4ACF-BF32-A43C5F558C10}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="10" windowWidth="19180" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
   <si>
     <t>STT</t>
   </si>
@@ -49,9 +49,6 @@
     <t>&lt;/jx:forEach&gt;</t>
   </si>
   <si>
-    <t>Danh sách hàng hóa trong kho ngày ${date}</t>
-  </si>
-  <si>
     <t>Kho</t>
   </si>
   <si>
@@ -74,13 +71,22 @@
   </si>
   <si>
     <t>Đơn vị tính</t>
+  </si>
+  <si>
+    <t>${item.goodsUnitName}</t>
+  </si>
+  <si>
+    <t>Danh sách hàng hóa trong kho</t>
+  </si>
+  <si>
+    <t>Thời gian xuất báo cáo: ${date}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +105,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -125,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -148,20 +162,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -190,11 +195,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -494,95 +508,110 @@
     <col min="8" max="8" width="16.453125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="F3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="9" t="s">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>11</v>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
